--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-04T16:51:07+00:00</t>
+    <t>2023-02-04T16:51:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-04T16:51:39+00:00</t>
+    <t>2023-02-04T16:53:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-04T16:53:50+00:00</t>
+    <t>2023-02-19T14:45:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="96">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-19T14:45:07+00:00</t>
+    <t>2023-02-20T20:06:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,175 +78,178 @@
     <t>Description</t>
   </si>
   <si>
+    <t>CharacterString</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>IHE http://www.ihe.net/Governance/#Intellectual_Property</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>complex-type</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>Base Definition</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Element</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Derivation</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
     <t>String</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>IHE http://www.ihe.net/Governance/#Intellectual_Property</t>
-  </si>
-  <si>
-    <t>FHIR Version</t>
-  </si>
-  <si>
-    <t>4.0.1</t>
-  </si>
-  <si>
-    <t>Kind</t>
-  </si>
-  <si>
-    <t>complex-type</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Element</t>
-  </si>
-  <si>
-    <t>Base Definition</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Element</t>
-  </si>
-  <si>
-    <t>Abstract</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>Derivation</t>
-  </si>
-  <si>
-    <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>text</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -810,7 +813,7 @@
         <v>77</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -870,21 +873,21 @@
         <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -895,7 +898,7 @@
         <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>74</v>
@@ -907,13 +910,13 @@
         <v>74</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -964,13 +967,13 @@
         <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>74</v>
@@ -979,19 +982,19 @@
         <v>74</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
@@ -1010,16 +1013,16 @@
         <v>74</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1057,19 +1060,19 @@
         <v>74</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>75</v>
@@ -1081,10 +1084,10 @@
         <v>74</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
